--- a/segunda-parte/doc/Automatas.xlsx
+++ b/segunda-parte/doc/Automatas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\54911\Documents\GitHub\Sondas\segunda-parte\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5087428-8866-4CF6-B0EF-FC9AF51826AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87DAE01-4086-4A29-A49E-6C987BA8BDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{4870DAD6-7886-456B-8B92-DF10D28B50A5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{4870DAD6-7886-456B-8B92-DF10D28B50A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="91">
   <si>
     <t>PH &lt; 6 || PH &gt; 9</t>
   </si>
@@ -36,27 +36,12 @@
     <t>TEMP &gt; 35</t>
   </si>
   <si>
-    <t>Sonido + Luz + Solucin Acida + MQTT alarmaPH</t>
-  </si>
-  <si>
-    <t>Luz + MQTT alarmTemp + Prohibir Descarga de agua</t>
-  </si>
-  <si>
-    <t>MQTT alertaBacterias</t>
-  </si>
-  <si>
     <t>TURB &gt; 2000</t>
   </si>
   <si>
-    <t>MQTT alertaExtraccionResiduos</t>
-  </si>
-  <si>
     <t>COND &gt; 1500</t>
   </si>
   <si>
-    <t>MQTT alertaAguaNoAptaConsumo</t>
-  </si>
-  <si>
     <t>AlertaTemp</t>
   </si>
   <si>
@@ -120,12 +105,6 @@
     <t>Luz</t>
   </si>
   <si>
-    <t>MQTT</t>
-  </si>
-  <si>
-    <t>Motor</t>
-  </si>
-  <si>
     <t>AT / 1</t>
   </si>
   <si>
@@ -139,13 +118,193 @@
   </si>
   <si>
     <t>alarmaPH</t>
+  </si>
+  <si>
+    <t>Mayor Riesgo</t>
+  </si>
+  <si>
+    <t>0 &lt; CRITICIDAD &lt; 6</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>MTA</t>
+  </si>
+  <si>
+    <t>MTM</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>AVISAR AL PROFE</t>
+  </si>
+  <si>
+    <t>Sonido + Luz + Mensaje(Verter solución para regular el ph.)</t>
+  </si>
+  <si>
+    <t>Mensaje(Presencia de  bacterias en el agua)</t>
+  </si>
+  <si>
+    <t>Luz + Mensaje(Prohibir descarga de agua)</t>
+  </si>
+  <si>
+    <t>Mensaje(Extraer residuos)</t>
+  </si>
+  <si>
+    <t>Mensaje(No consumir el agua)</t>
+  </si>
+  <si>
+    <t>Condiciones</t>
+  </si>
+  <si>
+    <t>P  (TA  | |  !TA)  (TA | | !TM)  (T | | !T)  ( C | | !C )</t>
+  </si>
+  <si>
+    <t>!P  TA  ( TM | | !TM ) ( T | | !T )  ( C | | !C )</t>
+  </si>
+  <si>
+    <t>!P  !TA  TM  (T | | !T)  ( C | !C )</t>
+  </si>
+  <si>
+    <t>!P  !TA  !TM  T  ( C | | !C )</t>
+  </si>
+  <si>
+    <t>!P  !TA  !TM  !T !C</t>
+  </si>
+  <si>
+    <t>!P  !TA  !TM  !T  C</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Accion</t>
+  </si>
+  <si>
+    <t>Acciones</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Autómata</t>
+  </si>
+  <si>
+    <t>Salidas</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>STA</t>
+  </si>
+  <si>
+    <t>STM</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>C / SC</t>
+  </si>
+  <si>
+    <t>T/ST</t>
+  </si>
+  <si>
+    <t>TM/STM</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>ATA</t>
+  </si>
+  <si>
+    <t>ATM</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>Mensaje(Todos los parametros son correctos)</t>
+  </si>
+  <si>
+    <t>N/SN</t>
+  </si>
+  <si>
+    <t>TA/STA</t>
+  </si>
+  <si>
+    <t>P/SP</t>
+  </si>
+  <si>
+    <t>C/SC</t>
+  </si>
+  <si>
+    <t>Estados</t>
+  </si>
+  <si>
+    <t>Ninguna de las anteriores</t>
+  </si>
+  <si>
+    <t>!P TA</t>
+  </si>
+  <si>
+    <t>!P  !TA  TM</t>
+  </si>
+  <si>
+    <t>!P  !TA  !TM  T</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +324,13 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -196,7 +362,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -284,11 +450,116 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -296,9 +567,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -314,46 +582,139 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,302 +1029,1198 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7632C59F-526A-462B-8ABE-D5066CB485BB}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="B1:Q74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="51" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="14" max="14" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="1.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="12" max="12" width="27.42578125" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1"/>
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2" t="s">
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1"/>
+      <c r="C5" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="P7" s="10" t="s">
+      <c r="L8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="D9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="P9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="12" t="s">
+      <c r="Q9" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="N10" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="N9" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="P9" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="M10" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="N10" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="O10" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="P10" s="23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E11" s="1"/>
+      <c r="Q10" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="37">
+        <v>5</v>
+      </c>
+      <c r="G12" s="37">
+        <v>0</v>
+      </c>
+      <c r="H12" s="37">
+        <v>2</v>
+      </c>
+      <c r="I12" s="37">
+        <v>0</v>
+      </c>
+      <c r="J12" s="37">
+        <v>1</v>
+      </c>
+      <c r="K12" s="37">
+        <v>0</v>
+      </c>
+      <c r="L12" s="37">
+        <v>3</v>
+      </c>
+      <c r="M12" s="37">
+        <v>4</v>
+      </c>
+      <c r="N12" s="37">
+        <v>0</v>
+      </c>
+      <c r="O12" s="21"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E14" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="30"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="30"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E16" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="J12" t="s">
-        <v>30</v>
-      </c>
-      <c r="N12" s="24"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="I16" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="30"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E17" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="30"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E18" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="38"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="53"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H32" s="29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H34" s="50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H35" s="50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H36" s="50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G37" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="H37" s="50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="H38" s="51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="53"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H41" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I41" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J41" s="29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" s="50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="H43" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" s="50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I44" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" s="50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="J45" s="50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" s="50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" s="51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="42"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="44"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="47"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="47"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="47"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="47"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="47"/>
+      <c r="J55" s="21"/>
+    </row>
+    <row r="56" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="49"/>
+    </row>
+    <row r="57" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" s="41"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="42"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" s="39"/>
+      <c r="E59" s="44"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" s="46"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="46"/>
+      <c r="H60" s="47"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" s="46"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="G61" s="46"/>
+      <c r="H61" s="47"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D62" s="46"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="G62" s="46"/>
+      <c r="H62" s="47"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D63" s="46"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="G63" s="46"/>
+      <c r="H63" s="47"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D64" s="46"/>
+      <c r="E64" s="47"/>
+      <c r="F64" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="G64" s="46"/>
+      <c r="H64" s="47"/>
+    </row>
+    <row r="65" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C65" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D65" s="36"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="G65" s="36"/>
+      <c r="H65" s="49"/>
+    </row>
+    <row r="66" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" s="52"/>
+      <c r="D67" s="53"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D68" s="44"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" s="47"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="47"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="47"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" s="47"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" s="47"/>
+    </row>
+    <row r="74" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D74" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
+  <mergeCells count="38">
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="G26:H27"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/segunda-parte/doc/Automatas.xlsx
+++ b/segunda-parte/doc/Automatas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\54911\Documents\GitHub\Sondas\segunda-parte\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9172D2-D5C9-4962-ABAC-DA9BCC6FF951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2C2BFB-FA92-4D18-A432-27382F52C13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{4870DAD6-7886-456B-8B92-DF10D28B50A5}"/>
   </bookViews>
@@ -527,46 +527,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -885,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7632C59F-526A-462B-8ABE-D5066CB485BB}">
   <dimension ref="B1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="106" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,15 +985,15 @@
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
@@ -1160,17 +1160,17 @@
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="22"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="26"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
@@ -1377,110 +1377,110 @@
     </row>
     <row r="24" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="28"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="22"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="26"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="23"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
-      <c r="F27" s="27"/>
+      <c r="F27" s="19"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>71</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
-      <c r="F28" s="27"/>
+      <c r="F28" s="19"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>25</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
-      <c r="F29" s="27"/>
+      <c r="F29" s="19"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>26</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
-      <c r="F30" s="27"/>
+      <c r="F30" s="19"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="27"/>
+      <c r="F31" s="19"/>
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="19"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="18"/>
     </row>
     <row r="33" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="28"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="22"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="26"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="23"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="11" t="s">
@@ -1490,7 +1490,7 @@
         <v>81</v>
       </c>
       <c r="D36" s="16"/>
-      <c r="E36" s="27"/>
+      <c r="E36" s="19"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="11" t="s">
@@ -1500,7 +1500,7 @@
         <v>82</v>
       </c>
       <c r="D37" s="16"/>
-      <c r="E37" s="27"/>
+      <c r="E37" s="19"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="11" t="s">
@@ -1510,7 +1510,7 @@
         <v>83</v>
       </c>
       <c r="D38" s="16"/>
-      <c r="E38" s="27"/>
+      <c r="E38" s="19"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="11" t="s">
@@ -1520,7 +1520,7 @@
         <v>84</v>
       </c>
       <c r="D39" s="16"/>
-      <c r="E39" s="27"/>
+      <c r="E39" s="19"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="11" t="s">
@@ -1530,40 +1530,40 @@
         <v>79</v>
       </c>
       <c r="D40" s="16"/>
-      <c r="E40" s="27"/>
+      <c r="E40" s="19"/>
     </row>
     <row r="41" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="18"/>
-      <c r="E41" s="19"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="18"/>
     </row>
     <row r="42" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="22"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="26"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25" t="s">
+      <c r="D44" s="15"/>
+      <c r="E44" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F44" s="26"/>
+      <c r="F44" s="23"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="11" t="s">
@@ -1576,7 +1576,7 @@
       <c r="E45" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F45" s="27"/>
+      <c r="F45" s="19"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="11" t="s">
@@ -1589,7 +1589,7 @@
       <c r="E46" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F46" s="27"/>
+      <c r="F46" s="19"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="11" t="s">
@@ -1602,7 +1602,7 @@
       <c r="E47" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="F47" s="27"/>
+      <c r="F47" s="19"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="11" t="s">
@@ -1615,7 +1615,7 @@
       <c r="E48" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F48" s="27"/>
+      <c r="F48" s="19"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="11" t="s">
@@ -1628,27 +1628,27 @@
       <c r="E49" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="F49" s="27"/>
+      <c r="F49" s="19"/>
     </row>
     <row r="50" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18" t="s">
+      <c r="D50" s="17"/>
+      <c r="E50" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F50" s="19"/>
+      <c r="F50" s="18"/>
     </row>
     <row r="51" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="24"/>
+      <c r="C52" s="21"/>
       <c r="D52" s="3" t="s">
         <v>12</v>
       </c>
@@ -1672,7 +1672,7 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C53" s="16"/>
@@ -1699,7 +1699,7 @@
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="27" t="s">
         <v>76</v>
       </c>
       <c r="C54" s="16"/>
@@ -1726,7 +1726,7 @@
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="27" t="s">
         <v>77</v>
       </c>
       <c r="C55" s="16"/>
@@ -1753,7 +1753,7 @@
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="27" t="s">
         <v>78</v>
       </c>
       <c r="C56" s="16"/>
@@ -1780,7 +1780,7 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="27" t="s">
         <v>79</v>
       </c>
       <c r="C57" s="16"/>
@@ -1807,10 +1807,10 @@
       </c>
     </row>
     <row r="58" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C58" s="18"/>
+      <c r="C58" s="17"/>
       <c r="D58" s="9" t="s">
         <v>10</v>
       </c>
@@ -1835,13 +1835,27 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="B7:H7"/>
@@ -1858,28 +1872,14 @@
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="C37:E37"/>
     <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
     <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="E50:F50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
